--- a/Uni/Semester 1 - 2022/INFT3100 - Project Management/Workshops/Week 3/AnswerSheet(1).xlsx
+++ b/Uni/Semester 1 - 2022/INFT3100 - Project Management/Workshops/Week 3/AnswerSheet(1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Noman\UoN_INFT3100_Project Management_S1_2021\week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samdo\Desktop\Uni - Part II\Uni\Semester 1 - 2022\INFT3100 - Project Management\Workshops\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C91422-4EF9-4C51-94FE-535CBD2DD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="7590"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 2a" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,17 @@
     <sheet name="Question 3" sheetId="3" r:id="rId3"/>
     <sheet name="Question 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -149,9 +160,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,13 +264,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -387,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,22 +625,24 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,33 +674,52 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>-250000</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="16">
+        <f>1 / SUM(1+C4)^1</f>
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="E7" s="16">
+        <f>1 / SUM(1+C4)^2</f>
+        <v>0.6609822195782934</v>
+      </c>
+      <c r="F7" s="16">
+        <f>1 / SUM(1+C4)^3</f>
+        <v>0.53738391835633614</v>
+      </c>
+      <c r="G7" s="16">
+        <f>1 / SUM(1+C4)^4</f>
+        <v>0.43689749459864724</v>
+      </c>
+      <c r="H7" s="16">
+        <f>1 / SUM(1+C4)^5</f>
+        <v>0.3552012151208514</v>
+      </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,7 +731,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -670,45 +741,94 @@
       <c r="H9" s="1"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>75000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>75000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>150000</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="16">
+        <f>1 / SUM(1+C4)^1</f>
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="E11" s="16">
+        <f>1 / SUM(1+C4)^2</f>
+        <v>0.6609822195782934</v>
+      </c>
+      <c r="F11" s="16">
+        <f>1 / SUM(1+C4)^3</f>
+        <v>0.53738391835633614</v>
+      </c>
+      <c r="G11" s="16">
+        <f>1 / SUM(1+C4)^4</f>
+        <v>0.43689749459864724</v>
+      </c>
+      <c r="H11" s="16">
+        <f>1 / SUM(1+C4)^5</f>
+        <v>0.3552012151208514</v>
+      </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="1">
+        <f>D10*D11</f>
+        <v>60975.609756097561</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E10*E11</f>
+        <v>49573.666468372008</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F10*F11</f>
+        <v>40303.793876725213</v>
+      </c>
+      <c r="G12" s="1">
+        <f>G10*G11</f>
+        <v>21844.874729932362</v>
+      </c>
+      <c r="H12" s="1">
+        <f>H10*H11</f>
+        <v>53280.182268127712</v>
+      </c>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="18">
+        <v>-106019.667176644</v>
+      </c>
+      <c r="P12" s="18">
+        <v>-77302.055168872801</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>55713.930356553697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -717,8 +837,17 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="19">
+        <v>-0.21203933435328795</v>
+      </c>
+      <c r="P13" s="19">
+        <v>-0.30920822067549136</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0.74285240475404968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -730,7 +859,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -743,41 +872,56 @@
       <c r="I15" s="1"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <f>C6+SUM(D12:G12)</f>
+        <v>-77302.055168872845</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="17">
+        <f>-C17/C6</f>
+        <v>-0.30920822067549136</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <f>C6+NPV(C4,D10:H10)</f>
+        <v>-24021.872900745191</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G24" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>D10*D11</f>
+        <v>60975.609756097561</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -786,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -996,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
